--- a/index-tts/assets/鸡汤.xlsx
+++ b/index-tts/assets/鸡汤.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>中文句子</t>
   </si>
@@ -35,112 +35,34 @@
     <t>英文翻译</t>
   </si>
   <si>
-    <t>他的彩鞋踩过碎玻璃般的嘲讽，却走出了清脆的节奏 —— 原来疼痛也能谱成歌。</t>
-  </si>
-  <si>
-    <t>His colorful shoes stepped over taunts like broken glass, yet struck a clear rhythm—turns out pain can also compose a song.</t>
-  </si>
-  <si>
-    <t>小丑的口袋里装满了被人丢弃的 “不开心”，他把它们折成纸船，让它们随笑声漂走。</t>
-  </si>
-  <si>
-    <t>The clown's pockets were full of "unhappiness" discarded by others; he folded them into paper boats, letting them drift away on laughter.</t>
-  </si>
-  <si>
-    <t>观众笑他的夸张，他笑观众：你们用端庄当铠甲，我用荒诞当翅膀。</t>
-  </si>
-  <si>
-    <t>The audience laughed at his exaggeration; he laughed back: you use dignity as armor, I use absurdity as wings.</t>
-  </si>
-  <si>
-    <t>红鼻子被汗水浸得发亮，像一颗被反复打磨的真心 —— 越经折腾，越显纯粹。</t>
-  </si>
-  <si>
-    <t>The red nose glistened with sweat, like a true heart polished repeatedly—the more it's tested, the purer it shines.</t>
-  </si>
-  <si>
-    <t>他故意让戏法露破绽，看谁会假装没看见 —— 原来成年人的默契，是一起维护体面的谎言。</t>
-  </si>
-  <si>
-    <t>He deliberately let the trick show flaws, watching who'd pretend not to notice—turns out adult tacit understanding is jointly maintaining decent lies.</t>
-  </si>
-  <si>
-    <t>舞台的裂缝里长出了野草，像极了他在绝望中冒出的希望。他踩在草上鞠躬，敬这生生不息。</t>
-  </si>
-  <si>
-    <t>Weeds grew from the stage cracks, much like hope sprouting in his despair. He bowed on the grass, honoring this endless vitality.</t>
-  </si>
-  <si>
-    <t>他把孤独塞进 oversized 外套，却在转身时让衣角扫过每个落寞的肩膀 —— 无声的拥抱最动人。</t>
-  </si>
-  <si>
-    <t>He stuffed loneliness into his oversized coat, yet let the hem brush every lonely shoulder when turning—the silent hug is most touching.</t>
-  </si>
-  <si>
-    <t>观众要他 “一直笑”，他偏在某个瞬间定格笑容 —— 原来暂停的表情里，藏着最真实的呼吸。</t>
-  </si>
-  <si>
-    <t>The audience demanded he "keep laughing," but he froze his smile in a moment—turns out the paused expression holds the truest breath.</t>
-  </si>
-  <si>
-    <t>他在台词里加了句 “我也累了”，笑声骤停的三秒，他听见了无数颗心在共鸣。</t>
-  </si>
-  <si>
-    <t>He slipped "I'm tired too" into the lines; in the three seconds of silent laughter, he heard countless hearts resonate.</t>
-  </si>
-  <si>
-    <t>小丑的镜子里，油彩下的疲惫与舞台上的鲜活重叠 —— 原来伟大的表演，是带着伤口依然燃烧。</t>
-  </si>
-  <si>
-    <t>In the clown's mirror, exhaustion under greasepaint overlapped with vitality on stage—turns out great performance is burning with wounds.</t>
-  </si>
-  <si>
-    <t>他故意把糖果扔向无人的角落，看那个怯生生的孩子跑过去 —— 快乐该给最需要的人。</t>
-  </si>
-  <si>
-    <t>He deliberately threw candy to the empty corner, watching the timid child run over—happiness should go to those who need it most.</t>
-  </si>
-  <si>
-    <t>红鼻子掉了又捡起来，像极了生活里碎了又拼好的自己。他粘得歪歪扭扭，却笑得格外用力。</t>
-  </si>
-  <si>
-    <t>The red nose fell and was picked up, much like the self broken and mended in life. He stuck it crookedly, yet laughed harder.</t>
-  </si>
-  <si>
-    <t>观众席的灯光亮起时，他看见有人悄悄擦掉嘴角的糖渣 —— 原来甜与苦，本就该一起咽下去。</t>
-  </si>
-  <si>
-    <t>When the audience lights turned on, he saw someone quietly wipe sugar dregs from their mouth—turns out sweetness and bitterness should be swallowed together.</t>
-  </si>
-  <si>
-    <t>他把 “被否定” 绣在背心上，让所有人都看见。不是炫耀，是想告诉谁：你不是一个人。</t>
-  </si>
-  <si>
-    <t>He embroidered "being denied" on his vest for all to see. Not to show off, but to tell someone: you're not alone.</t>
-  </si>
-  <si>
-    <t>小丑的舞步里藏着挣扎，每一步都像踩在刀尖上，却偏要踏出轻快的节奏 —— 这是对生活的温柔反抗。</t>
-  </si>
-  <si>
-    <t>The clown's dance steps hid struggles, each step like treading on knife edges, yet he stepped out a light rhythm—a gentle rebellion against life.</t>
-  </si>
-  <si>
-    <t>彩球爆炸的瞬间，他闭上眼深呼吸。那声巨响后，他听见了自己内心的平静 —— 喧嚣尽头是安宁。</t>
-  </si>
-  <si>
-    <t>At the balloon's explosion, he closed his eyes to breathe. After the loud bang, he heard his inner peace—tranquility lies beyond noise.</t>
-  </si>
-  <si>
-    <t>他故意穿错左右脚的鞋，看谁会笑着提醒。原来真诚的关心，藏在最不经意的细节里。</t>
-  </si>
-  <si>
-    <t>He deliberately wore shoes on the wrong feet, watching who'd laugh and remind. Turns out sincere care hides in the most casual details.</t>
-  </si>
-  <si>
-    <t>卸妆时，他对着镜子里素净的脸笑了 —— 原来卸下扮演，那个普通的自己，也值得被温柔对待。</t>
-  </si>
-  <si>
-    <t>When removing makeup, he smiled at his plain face in the mirror—turns out the ordinary self, without pretense, deserves tenderness too.</t>
+    <t>小丑的夸张不是哗众取宠，是用放大镜照见规则的荒诞 —— 当所有人都在方框里工整地呼吸，他偏要在框外，吹一个歪歪扭扭的泡泡。</t>
+  </si>
+  <si>
+    <t>The clown's exaggeration is not to curry favor, but to hold a magnifying glass to the absurdity of rules—while everyone breathes neatly within the square frame, he insists on blowing a lopsided bubble outside it.</t>
+  </si>
+  <si>
+    <t>他故意踩碎的舞步，是给刻板节奏的一记温柔耳光：世界教我们 “应该” 如何迈步，他偏要在错位里，踩出自己的心跳。</t>
+  </si>
+  <si>
+    <t>His deliberately disjointed dance steps are a gentle slap to rigid rhythms: the world teaches us "how we should" step, but he insists on treading out his own heartbeat in the dissonance.</t>
+  </si>
+  <si>
+    <t>红鼻子上的反光，是对 “正经” 的无声诘问 —— 凭什么要用统一的模具，浇铸千万种不同的灵魂？</t>
+  </si>
+  <si>
+    <t>The glint on his red nose is a silent interrogation of "propriety"—why should millions of distinct souls be cast from the same mold?</t>
+  </si>
+  <si>
+    <t>小丑抖落的每一片彩纸，都是撕碎的规训标签：所谓 “正确” 的边界，本就是用来被想象力擦去的线。</t>
+  </si>
+  <si>
+    <t>Every confetti flake the clown shakes off is a torn label of discipline: the boundaries of "correctness" are lines meant to be erased by imagination.</t>
+  </si>
+  <si>
+    <t>他在舞台中央的驻足，像一个隐喻：当所有人都朝着 “标准答案” 奔跑时，敢于站定发呆的，或许才是真正的清醒者。</t>
+  </si>
+  <si>
+    <t>His pause at center stage is a metaphor—when everyone sprints toward the "standard answer," those brave enough to stand still and wonder may be the truly awake.</t>
   </si>
 </sst>
 </file>
@@ -153,13 +75,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -306,12 +234,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -639,55 +573,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,70 +633,73 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -775,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,13 +1029,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="$A7:$XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.4285714285714" style="1" customWidth="1"/>
@@ -1115,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="17.25" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1123,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="17.25" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="17.25" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1139,7 +1073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" ht="17.25" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1147,116 +1081,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" ht="17.25" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/index-tts/assets/鸡汤.xlsx
+++ b/index-tts/assets/鸡汤.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>中文句子</t>
   </si>
@@ -35,34 +35,244 @@
     <t>英文翻译</t>
   </si>
   <si>
-    <t>小丑的夸张不是哗众取宠，是用放大镜照见规则的荒诞 —— 当所有人都在方框里工整地呼吸，他偏要在框外，吹一个歪歪扭扭的泡泡。</t>
-  </si>
-  <si>
-    <t>The clown's exaggeration is not to curry favor, but to hold a magnifying glass to the absurdity of rules—while everyone breathes neatly within the square frame, he insists on blowing a lopsided bubble outside it.</t>
-  </si>
-  <si>
-    <t>他故意踩碎的舞步，是给刻板节奏的一记温柔耳光：世界教我们 “应该” 如何迈步，他偏要在错位里，踩出自己的心跳。</t>
-  </si>
-  <si>
-    <t>His deliberately disjointed dance steps are a gentle slap to rigid rhythms: the world teaches us "how we should" step, but he insists on treading out his own heartbeat in the dissonance.</t>
-  </si>
-  <si>
-    <t>红鼻子上的反光，是对 “正经” 的无声诘问 —— 凭什么要用统一的模具，浇铸千万种不同的灵魂？</t>
-  </si>
-  <si>
-    <t>The glint on his red nose is a silent interrogation of "propriety"—why should millions of distinct souls be cast from the same mold?</t>
-  </si>
-  <si>
-    <t>小丑抖落的每一片彩纸，都是撕碎的规训标签：所谓 “正确” 的边界，本就是用来被想象力擦去的线。</t>
-  </si>
-  <si>
-    <t>Every confetti flake the clown shakes off is a torn label of discipline: the boundaries of "correctness" are lines meant to be erased by imagination.</t>
-  </si>
-  <si>
-    <t>他在舞台中央的驻足，像一个隐喻：当所有人都朝着 “标准答案” 奔跑时，敢于站定发呆的，或许才是真正的清醒者。</t>
-  </si>
-  <si>
-    <t>His pause at center stage is a metaphor—when everyone sprints toward the "standard answer," those brave enough to stand still and wonder may be the truly awake.</t>
+    <t>小丑的帽子里能变出金币，却从没人问他：这些闪闪发光的，会不会是用快乐熔铸的？</t>
+  </si>
+  <si>
+    <t>The clown can pull gold coins from his hat, yet no one asks: could these glimmers be forged from joy?</t>
+  </si>
+  <si>
+    <t>人们为他的 “财富戏法” 欢呼，他却在鞠躬时悄悄掉了枚硬币 —— 原来成功的声响，有时比不过一枚硬币落地的清脆。</t>
+  </si>
+  <si>
+    <t>People cheer for his "wealth tricks," but he drops a coin while bowing—turns out the sound of success sometimes pales next to a coin hitting the ground.</t>
+  </si>
+  <si>
+    <t>他把钞票折成纸飞机放飞，看谁会追着跑。那些弯腰去捡的人，没看见他眼里的叹息：有些价值，比票面数字轻得多。</t>
+  </si>
+  <si>
+    <t>He folds bills into paper planes and lets them fly, watching who chases. Those bending to pick them up miss the sigh in his eyes: some worth is far lighter than the number on the note.</t>
+  </si>
+  <si>
+    <t>观众扔给他的硬币叮当作响，他却更珍惜那个孩子递来的、画着笑脸的石子 —— 原来最珍贵的 “报酬”，从不用秤称。</t>
+  </si>
+  <si>
+    <t>Coins thrown at him clink, but he cherishes more the stone with a drawn smile from a child—turns out the most precious "payment" is never weighed.</t>
+  </si>
+  <si>
+    <t>小丑的戏服缝满假钻石，阳光下亮得刺眼。他摸了摸胸口的补丁 —— 那里藏着枚真硬币，是他给自己的 “成功勋章”。</t>
+  </si>
+  <si>
+    <t>The clown's costume is stitched with fake diamonds, blinding in sunlight. He touches the patch on his chest—there lies a real coin, his own "success medal."</t>
+  </si>
+  <si>
+    <t>人们说 “赚够钱就不演了”，他笑了：我的舞台从不要门票，可愿意为快乐买单的人，才是真的富有。</t>
+  </si>
+  <si>
+    <t>People say "Quit when I've made enough," he laughs: my stage never charges, but those willing to pay for joy are truly rich.</t>
+  </si>
+  <si>
+    <t>他故意把 “成功学” 的书撕了当彩纸撒，看谁会皱眉。那些捡拾碎片的人，拼凑不出他想说的：真正的成功，是敢撕碎规则。</t>
+  </si>
+  <si>
+    <t>He deliberately tears "success books" to scatter as confetti, watching who frowns. Those picking up pieces can't piece together his point: real success is daring to tear rules.</t>
+  </si>
+  <si>
+    <t>红鼻子蹭过富豪的皮鞋，对方嫌脏地躲开。他却对着乞丐的破碗鞠躬 —— 原来尊重，才是最值钱的 “流通货币”。</t>
+  </si>
+  <si>
+    <t>His red nose brushes a millionaire's shoe, who shrinks away. But he bows to a beggar's bowl—turns out respect is the most valuable "currency."</t>
+  </si>
+  <si>
+    <t>观众用掌声衡量他的 “价值”，他却数着每场有多少人真心笑过。账本上的数字会褪色，那些笑声却刻在心里。</t>
+  </si>
+  <si>
+    <t>The audience measures his "worth" by applause, but he counts how many laughed sincerely. Numbers in ledgers fade, but those laughs carve into his heart.</t>
+  </si>
+  <si>
+    <t>他把 “失败” 写在支票上，假装去兑现。银行职员笑他疯了，没看懂那签名：真正的 “财富”，是敢承认自己一无所有。</t>
+  </si>
+  <si>
+    <t>He writes "failure" on a check, pretending to cash it. The teller laughs, missing the signature's meaning: real "wealth" is daring to admit you have nothing.</t>
+  </si>
+  <si>
+    <t>小丑的存钱罐是个破帽子，却总比别人的保险柜满。因为他存的不是钱，是每场表演后，人们遗落的、没说出口的快乐。</t>
+  </si>
+  <si>
+    <t>The clown's piggy bank is a tattered hat, yet fuller than others' safes. For he stores not money, but the unspoken joy people leave behind after each show.</t>
+  </si>
+  <si>
+    <t>人们为他的 “商业价值” 讨价还价，他却在合同背面画了个笑脸。对方没看见：有些交易，从来不在条款里。</t>
+  </si>
+  <si>
+    <t>People haggle over his "commercial value," but he draws a smile on the contract's back. They miss it: some deals are never in the clauses.</t>
+  </si>
+  <si>
+    <t>他踩着高跷扮演 “成功人士”，故意摔得滑稽。爬起来时他想：站得越高，越该记得摔倒时，谁愿意伸手扶你。</t>
+  </si>
+  <si>
+    <t>He plays a "success" on stilts, deliberately falling comically. Rising, he thinks: the higher you stand, the more you should remember who'll reach out when you fall.</t>
+  </si>
+  <si>
+    <t>观众席的 VIP 区空着，他却对着后排的学生鞠躬。那些攥着皱巴巴门票的手，比镶金的会员卡更让他动容。</t>
+  </si>
+  <si>
+    <t>The VIP section is empty, but he bows to students in the back. Those clutching crumpled tickets move him more than gilded membership cards.</t>
+  </si>
+  <si>
+    <t>他把硬币塞进破洞的口袋，走一步掉一枚。有人嘲笑他笨，没看见他每走一步，都离 “不被金钱困住” 的自由近一点。</t>
+  </si>
+  <si>
+    <t>He stuffs coins into a holey pocket, losing one each step. Some mock his clumsiness, missing that each step brings him closer to freedom from money's trap.</t>
+  </si>
+  <si>
+    <t>人们说 “你该更成功”，他指着自己的红鼻子：这玩意儿不值钱，可它能买到比成功更贵的东西 —— 别人的笑容。</t>
+  </si>
+  <si>
+    <t>People say "You should be more successful," he points to his red nose: this thing's worthless, but it buys something pricier than success—others' smiles.</t>
+  </si>
+  <si>
+    <t>小丑用纸币叠的船在积水里漂，看它们湿透下沉。那些惊呼 “可惜” 的人，不懂他在演示：有些 “财富”，本就该随波而去。</t>
+  </si>
+  <si>
+    <t>The clown floats boats of bills in puddles, watching them sink. Those gasping "What a waste" don't get he's showing: some "wealth" was meant to drift away.</t>
+  </si>
+  <si>
+    <t>富豪扔给他一沓钱要他演得 “更卖力”，他却把钱分给了围观的孩子。原来真正的 “卖力”，是让更多人尝到甜，哪怕自己分不到。</t>
+  </si>
+  <si>
+    <t>A tycoon tosses cash for "harder work," but he gives it to watching kids. Turns out real "effort" is letting more taste sweetness, even if you get none.</t>
+  </si>
+  <si>
+    <t>他在 “成功” 的锦旗上画了个小丑脸，挂反了也不纠正。路过的人笑他不懂荣誉，他笑他们不懂：能嘲笑成功的，才是真的超越了它。</t>
+  </si>
+  <si>
+    <t>He draws a clown face on a "success" banner, hangs it upside down and leaves it. Passersby mock his ignorance of honor; he mocks theirs: those who can laugh at success truly surpass it.</t>
+  </si>
+  <si>
+    <t>小丑的最后一场表演，他把所有道具换成了真硬币。撒向空中时他想：这些会落地，会被捡走，但那些因快乐跳动的心，才是永远带不走的 “资产”。</t>
+  </si>
+  <si>
+    <t>For his final show, he replaces all props with real coins. Scattering them, he thinks: these will fall, be picked up, but hearts made to beat with joy are assets no one can take.</t>
+  </si>
+  <si>
+    <t>小丑的膝盖缠着绷带，却跳得比谁都高。他知道，疼痛是身体在提醒：你还在为热爱发力。</t>
+  </si>
+  <si>
+    <t>The clown's knees are wrapped in bandages, yet he jumps higher than anyone. He knows pain is the body's reminder: you're still pushing for what you love.</t>
+  </si>
+  <si>
+    <t>他每天对着镜子练习微笑，不是为了表演，是想让嘴角的弧度告诉自己：乐观，是最廉价也最有效的养生。</t>
+  </si>
+  <si>
+    <t>He practices smiling in the mirror daily, not for shows, but to let the curve of his lips remind him: optimism is the cheapest and most effective health tonic.</t>
+  </si>
+  <si>
+    <t>观众看见他在台上翻跟头，没看见他清晨在空场重复跌倒。原来坚持的模样，总藏在掌声未响的时刻。</t>
+  </si>
+  <si>
+    <t>The audience sees him somersault on stage, not the mornings he repeats falls in an empty lot. Turns out persistence hides where applause hasn't reached.</t>
+  </si>
+  <si>
+    <t>他的理想被人当笑话，于是他就把理想编进笑话里。听着听着，那些笑声里渐渐多了几分认真。</t>
+  </si>
+  <si>
+    <t>People laughed at his ideals, so he wove them into jokes. Little by little, those laughs grew tinged with earnestness.</t>
+  </si>
+  <si>
+    <t>小丑的戏服磨出了洞，却舍不得换。针脚里藏着的，是无数个 “想放弃” 又 “再试试” 的夜晚。</t>
+  </si>
+  <si>
+    <t>The clown's costume is frayed with holes, yet he won't replace it. Stitches hold the memory of countless nights when he wanted to quit, but tried again.</t>
+  </si>
+  <si>
+    <t>他故意在表演里加段笨拙的拉伸，看谁会跟着动。那些偷偷活动肩膀的人，懂他的暗示：健康，藏在每个微小的坚持里。</t>
+  </si>
+  <si>
+    <t>He deliberately adds a clumsy stretch to his act, watching who joins in. Those sneaking shoulder rolls understand his hint: health lives in small, steady efforts.</t>
+  </si>
+  <si>
+    <t>有人说 “你的理想不切实际”，他指着自己的红鼻子：连荒诞都能被接受，为什么真诚不能？</t>
+  </si>
+  <si>
+    <t>When told "Your ideals are unrealistic," he points to his red nose: if absurdity can be accepted, why not sincerity?</t>
+  </si>
+  <si>
+    <t>他的脚踝肿了，就把疼痛编成绕口令。观众笑他口齿不清，没听出每个字都在说：和痛苦和解，也是一种健康。</t>
+  </si>
+  <si>
+    <t>With a swollen ankle, he turns pain into a tongue twister. The audience laughs at his slurred words, missing that each syllable says: making peace with pain is also a kind of health.</t>
+  </si>
+  <si>
+    <t>十年如一日，他在同一个街角表演。不是没机会离开，是想证明：理想不用追着光跑，站定了，光总会来。</t>
+  </si>
+  <si>
+    <t>For a decade, he performs on the same street corner. Not for lack of opportunities, but to prove: ideals don't need to chase light—stand firm, and light will come.</t>
+  </si>
+  <si>
+    <t>小丑把维生素片藏在彩球里，变戏法时偷偷吞下。他想告诉孩子们：照顾好自己，才能让热爱更长久。</t>
+  </si>
+  <si>
+    <t>The clown hides vitamins in his balls, swallowing them during tricks. He wants to tell kids: take care of yourself, so love can last longer.</t>
+  </si>
+  <si>
+    <t>他在暴雨里坚持演出，不是固执，是想让躲雨的人看见：理想淋不湿，只会在泥泞里扎根更深。</t>
+  </si>
+  <si>
+    <t>He performs through rainstorms, not out of stubbornness, but to show those sheltering: ideals don't get soaked—they take deeper roots in mud.</t>
+  </si>
+  <si>
+    <t>观众嘲笑他 “一把年纪还做白日梦”，他弯腰系紧鞋带：追梦和年龄无关，就像这双鞋，磨坏了换一双，路还在脚下。</t>
+  </si>
+  <si>
+    <t>When mocked "Too old for daydreams," he bends to tighten his laces: Chasing dreams has nothing to do with age—like these shoes, wear out one pair, another takes its place, and the road stays underfoot.</t>
+  </si>
+  <si>
+    <t>他每天提前两小时热身，不是为了完美，是怕身体跟不上灵魂的热情。健康，本就是理想的基石。</t>
+  </si>
+  <si>
+    <t>He warms up two hours early daily, not for perfection, but fear his body can't keep up with his soul's passion. Health is the foundation of ideals.</t>
+  </si>
+  <si>
+    <t>有人问 “你不累吗”，他摘下帽子露出汗湿的头发：累是常态，但放弃的遗憾，比疲惫更重。</t>
+  </si>
+  <si>
+    <t>When asked "Aren't you tired?" he removes his hat, revealing sweaty hair: Tiredness is normal, but the regret of quitting weighs more than fatigue.</t>
+  </si>
+  <si>
+    <t>小丑的理想很小：让每个看过他表演的人，记得笑比药有效。这个愿望，他用了一辈子去实现。</t>
+  </si>
+  <si>
+    <t>The clown's ideal is small: let everyone who sees his act remember laughter works better than medicine. It's a wish he spends a lifetime fulfilling.</t>
+  </si>
+  <si>
+    <t>他故意在高难度动作前停顿，深呼吸。不是害怕，是想演示：坚持不是硬撑，懂得调整，才能走得更远。</t>
+  </si>
+  <si>
+    <t>He pauses before difficult stunts, taking deep breaths. Not out of fear, but to show: persistence isn't brute force—knowing when to adjust lets you go further.</t>
+  </si>
+  <si>
+    <t>医生说 “你该休息了”，他在病历本上画了个笑脸：身体需要休养，但心不能停，理想是最好的复健药。</t>
+  </si>
+  <si>
+    <t>When the doctor says "Rest," he draws a smile in his medical record: The body needs rest, but the heart can't stop—ideals are the best rehabilitation.</t>
+  </si>
+  <si>
+    <t>他把 “坚持” 写在飘带末端，让风带着它飘向远方。每个捡到的人，都能读到半句：开始很容易，难的是……</t>
+  </si>
+  <si>
+    <t>He writes "persistence" on the end of his streamer, letting wind carry it far. Everyone who finds it reads half a sentence: Starting is easy; the hard part is...</t>
+  </si>
+  <si>
+    <t>观众席里有个生病的孩子，他特意多翻了三个跟头。汗水滴在舞台上，像在说：为了值得的人，健康可以再 “透支” 一点。</t>
+  </si>
+  <si>
+    <t>A sick child sits in the audience, so he tumbles three extra times. Sweat drops on stage, as if saying: For someone worth it, health can "overdraw" a little more.</t>
+  </si>
+  <si>
+    <t>小丑老了，翻不动跟头了，就坐在椅子上讲理想。听的人哭了，他却说：别哭，理想这东西，会随着故事传下去，永远年轻。</t>
+  </si>
+  <si>
+    <t>The clown grows old, can't tumble anymore, so he sits on a chair talking about ideals. Listeners cry, but he says: Don't weep—ideals, passed down in stories, stay forever young.</t>
   </si>
 </sst>
 </file>
@@ -703,13 +913,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,15 +1242,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="1" max="1" width="50.2857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.4285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1089,6 +1302,286 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" ht="17.25" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" ht="224.25" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" ht="189.75" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" ht="207" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" ht="138" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" ht="189.75" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" ht="189.75" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" ht="155.25" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" ht="224.25" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" ht="207" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="172.5" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" ht="207" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" ht="276" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" ht="189.75" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" ht="207" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" ht="189.75" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" ht="207" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" ht="207" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" ht="207" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" ht="189.75" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" ht="224.25" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
